--- a/holdings/holdings_all.xlsx
+++ b/holdings/holdings_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://flandersmake-my.sharepoint.com/personal/steven_michiels_flandersmake_be/Documents/Documents/Prive/move/holdings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:40009_{9C2A3257-5A6E-4614-AE3F-14EED9D928AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D09E63E-069C-41FE-9B20-70CBE08B6778}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:40009_{9C2A3257-5A6E-4614-AE3F-14EED9D928AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6041FE6C-4575-4172-9049-6CBEDE750870}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XLY" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1973" uniqueCount="819">
   <si>
     <t>Symbol</t>
   </si>
@@ -1886,6 +1886,597 @@
   </si>
   <si>
     <t>SOXX</t>
+  </si>
+  <si>
+    <t>CRWD</t>
+  </si>
+  <si>
+    <t>WDAY</t>
+  </si>
+  <si>
+    <t>PLTR</t>
+  </si>
+  <si>
+    <t>DDOG</t>
+  </si>
+  <si>
+    <t>TEAM</t>
+  </si>
+  <si>
+    <t>HUBS</t>
+  </si>
+  <si>
+    <t>SPLK</t>
+  </si>
+  <si>
+    <t>ZS</t>
+  </si>
+  <si>
+    <t>ZM</t>
+  </si>
+  <si>
+    <t>MANH</t>
+  </si>
+  <si>
+    <t>NTNX</t>
+  </si>
+  <si>
+    <t>MSTR</t>
+  </si>
+  <si>
+    <t>BSY</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>SNAP</t>
+  </si>
+  <si>
+    <t>ESTC</t>
+  </si>
+  <si>
+    <t>DOCU</t>
+  </si>
+  <si>
+    <t>OTEX</t>
+  </si>
+  <si>
+    <t>PATH</t>
+  </si>
+  <si>
+    <t>GWRE</t>
+  </si>
+  <si>
+    <t>APP</t>
+  </si>
+  <si>
+    <t>DSG</t>
+  </si>
+  <si>
+    <t>CFLT</t>
+  </si>
+  <si>
+    <t>PCOR</t>
+  </si>
+  <si>
+    <t>SPSC</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>QLYS</t>
+  </si>
+  <si>
+    <t>GTLB</t>
+  </si>
+  <si>
+    <t>BILL</t>
+  </si>
+  <si>
+    <t>DBX</t>
+  </si>
+  <si>
+    <t>TENB</t>
+  </si>
+  <si>
+    <t>IOT</t>
+  </si>
+  <si>
+    <t>SMAR</t>
+  </si>
+  <si>
+    <t>MARA</t>
+  </si>
+  <si>
+    <t>AZPN</t>
+  </si>
+  <si>
+    <t>VRNS</t>
+  </si>
+  <si>
+    <t>APPF</t>
+  </si>
+  <si>
+    <t>DLB</t>
+  </si>
+  <si>
+    <t>FIVN</t>
+  </si>
+  <si>
+    <t>ALTR</t>
+  </si>
+  <si>
+    <t>DV</t>
+  </si>
+  <si>
+    <t>CVLT</t>
+  </si>
+  <si>
+    <t>WK</t>
+  </si>
+  <si>
+    <t>BOX</t>
+  </si>
+  <si>
+    <t>ALRM</t>
+  </si>
+  <si>
+    <t>TDC</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>RPD</t>
+  </si>
+  <si>
+    <t>ACIW</t>
+  </si>
+  <si>
+    <t>FRSH</t>
+  </si>
+  <si>
+    <t>SPT</t>
+  </si>
+  <si>
+    <t>AYX</t>
+  </si>
+  <si>
+    <t>BLKB</t>
+  </si>
+  <si>
+    <t>RIOT</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>IDCC</t>
+  </si>
+  <si>
+    <t>CCCS</t>
+  </si>
+  <si>
+    <t>PEGA</t>
+  </si>
+  <si>
+    <t>RNG</t>
+  </si>
+  <si>
+    <t>BRZE</t>
+  </si>
+  <si>
+    <t>HCP</t>
+  </si>
+  <si>
+    <t>QTWO</t>
+  </si>
+  <si>
+    <t>RAMP</t>
+  </si>
+  <si>
+    <t>ENV</t>
+  </si>
+  <si>
+    <t>PRGS</t>
+  </si>
+  <si>
+    <t>CWAN</t>
+  </si>
+  <si>
+    <t>VRNT</t>
+  </si>
+  <si>
+    <t>PD</t>
+  </si>
+  <si>
+    <t>NCNO</t>
+  </si>
+  <si>
+    <t>VYX</t>
+  </si>
+  <si>
+    <t>LSPD</t>
+  </si>
+  <si>
+    <t>AUR</t>
+  </si>
+  <si>
+    <t>YOU</t>
+  </si>
+  <si>
+    <t>AGYS</t>
+  </si>
+  <si>
+    <t>ZETA</t>
+  </si>
+  <si>
+    <t>ASAN</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>APPN</t>
+  </si>
+  <si>
+    <t>CXM</t>
+  </si>
+  <si>
+    <t>VERX</t>
+  </si>
+  <si>
+    <t>PRO</t>
+  </si>
+  <si>
+    <t>ADEA</t>
+  </si>
+  <si>
+    <t>EVBG</t>
+  </si>
+  <si>
+    <t>PWSC</t>
+  </si>
+  <si>
+    <t>INTA</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>JAMF</t>
+  </si>
+  <si>
+    <t>MODN</t>
+  </si>
+  <si>
+    <t>ZUO</t>
+  </si>
+  <si>
+    <t>ATEN</t>
+  </si>
+  <si>
+    <t>ALKT</t>
+  </si>
+  <si>
+    <t>NABL</t>
+  </si>
+  <si>
+    <t>AVPT</t>
+  </si>
+  <si>
+    <t>SWI</t>
+  </si>
+  <si>
+    <t>ETWO</t>
+  </si>
+  <si>
+    <t>MTTR</t>
+  </si>
+  <si>
+    <t>MLNK</t>
+  </si>
+  <si>
+    <t>IGV</t>
+  </si>
+  <si>
+    <t>NET</t>
+  </si>
+  <si>
+    <t>BAH</t>
+  </si>
+  <si>
+    <t>OKTA</t>
+  </si>
+  <si>
+    <t>CYBR</t>
+  </si>
+  <si>
+    <t>CHKP</t>
+  </si>
+  <si>
+    <t>DARK</t>
+  </si>
+  <si>
+    <t>FSLY</t>
+  </si>
+  <si>
+    <t>HACK</t>
+  </si>
+  <si>
+    <t>WCLD</t>
+  </si>
+  <si>
+    <t>SQ</t>
+  </si>
+  <si>
+    <t>WIX</t>
+  </si>
+  <si>
+    <t>AVDX</t>
+  </si>
+  <si>
+    <t>TOST</t>
+  </si>
+  <si>
+    <t>MNDY</t>
+  </si>
+  <si>
+    <t>VEEV</t>
+  </si>
+  <si>
+    <t>OLO</t>
+  </si>
+  <si>
+    <t>TWLO</t>
+  </si>
+  <si>
+    <t>SQSP</t>
+  </si>
+  <si>
+    <t>PCTY</t>
+  </si>
+  <si>
+    <t>ZI</t>
+  </si>
+  <si>
+    <t>FROG</t>
+  </si>
+  <si>
+    <t>DOCN</t>
+  </si>
+  <si>
+    <t>YEXT</t>
+  </si>
+  <si>
+    <t>KVYO</t>
+  </si>
+  <si>
+    <t>MDB</t>
+  </si>
+  <si>
+    <t>SHOP</t>
+  </si>
+  <si>
+    <t>BIGC</t>
+  </si>
+  <si>
+    <t>DH</t>
+  </si>
+  <si>
+    <t>SNOW</t>
+  </si>
+  <si>
+    <t>AMPL</t>
+  </si>
+  <si>
+    <t>SINCH</t>
+  </si>
+  <si>
+    <t>HSTM</t>
+  </si>
+  <si>
+    <t>PUBM</t>
+  </si>
+  <si>
+    <t>VMEO</t>
+  </si>
+  <si>
+    <t>VNET</t>
+  </si>
+  <si>
+    <t>BABA</t>
+  </si>
+  <si>
+    <t>DCRU</t>
+  </si>
+  <si>
+    <t>KC</t>
+  </si>
+  <si>
+    <t>TWOU</t>
+  </si>
+  <si>
+    <t>CLOU</t>
+  </si>
+  <si>
+    <t>4704 JP</t>
+  </si>
+  <si>
+    <t>RDWR</t>
+  </si>
+  <si>
+    <t>OSPN</t>
+  </si>
+  <si>
+    <t>TLS</t>
+  </si>
+  <si>
+    <t>ARQQ</t>
+  </si>
+  <si>
+    <t>BUG</t>
+  </si>
+  <si>
+    <t>COIN</t>
+  </si>
+  <si>
+    <t>ROKU</t>
+  </si>
+  <si>
+    <t>CRSP</t>
+  </si>
+  <si>
+    <t>HOOD</t>
+  </si>
+  <si>
+    <t>RBLX</t>
+  </si>
+  <si>
+    <t>DKNG</t>
+  </si>
+  <si>
+    <t>NTLA</t>
+  </si>
+  <si>
+    <t>BEAM</t>
+  </si>
+  <si>
+    <t>TXG</t>
+  </si>
+  <si>
+    <t>DNA</t>
+  </si>
+  <si>
+    <t>RXRX</t>
+  </si>
+  <si>
+    <t>TDOC</t>
+  </si>
+  <si>
+    <t>TWST</t>
+  </si>
+  <si>
+    <t>TTD</t>
+  </si>
+  <si>
+    <t>EXAS</t>
+  </si>
+  <si>
+    <t>PACB</t>
+  </si>
+  <si>
+    <t>PINS</t>
+  </si>
+  <si>
+    <t>VCYT</t>
+  </si>
+  <si>
+    <t>ACHR</t>
+  </si>
+  <si>
+    <t>VERV</t>
+  </si>
+  <si>
+    <t>SOFI</t>
+  </si>
+  <si>
+    <t>CERS</t>
+  </si>
+  <si>
+    <t>PRME</t>
+  </si>
+  <si>
+    <t>NTRA</t>
+  </si>
+  <si>
+    <t>ARKK</t>
+  </si>
+  <si>
+    <t>SEDG</t>
+  </si>
+  <si>
+    <t>RUN</t>
+  </si>
+  <si>
+    <t>SHLS</t>
+  </si>
+  <si>
+    <t>HASI</t>
+  </si>
+  <si>
+    <t>ARRY</t>
+  </si>
+  <si>
+    <t>ECV</t>
+  </si>
+  <si>
+    <t>DQ</t>
+  </si>
+  <si>
+    <t>JKS</t>
+  </si>
+  <si>
+    <t>CSIQ</t>
+  </si>
+  <si>
+    <t>ENLT</t>
+  </si>
+  <si>
+    <t>S92</t>
+  </si>
+  <si>
+    <t>SLR</t>
+  </si>
+  <si>
+    <t>NEOEN</t>
+  </si>
+  <si>
+    <t>CWEN</t>
+  </si>
+  <si>
+    <t>NOVA</t>
+  </si>
+  <si>
+    <t>AY</t>
+  </si>
+  <si>
+    <t>ENRG</t>
+  </si>
+  <si>
+    <t>AMPS</t>
+  </si>
+  <si>
+    <t>NOFR</t>
+  </si>
+  <si>
+    <t>GRE</t>
+  </si>
+  <si>
+    <t>SCATC</t>
+  </si>
+  <si>
+    <t>SPWR</t>
+  </si>
+  <si>
+    <t>RNW</t>
+  </si>
+  <si>
+    <t>MBTN</t>
+  </si>
+  <si>
+    <t>DORL</t>
+  </si>
+  <si>
+    <t>MAXN</t>
+  </si>
+  <si>
+    <t>TAN</t>
   </si>
 </sst>
 </file>
@@ -2369,11 +2960,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2729,14 +3322,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C659"/>
+  <dimension ref="A1:D994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A624" workbookViewId="0">
-      <selection activeCell="F654" sqref="F654"/>
+    <sheetView tabSelected="1" topLeftCell="A971" workbookViewId="0">
+      <selection activeCell="C958" sqref="C958:C986"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9989,6 +10583,3694 @@
         <v>0</v>
       </c>
     </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
+        <v>129</v>
+      </c>
+      <c r="B660" t="s">
+        <v>720</v>
+      </c>
+      <c r="C660">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
+        <v>123</v>
+      </c>
+      <c r="B661" t="s">
+        <v>720</v>
+      </c>
+      <c r="C661">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
+        <v>135</v>
+      </c>
+      <c r="B662" t="s">
+        <v>720</v>
+      </c>
+      <c r="C662">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A663" t="s">
+        <v>136</v>
+      </c>
+      <c r="B663" t="s">
+        <v>720</v>
+      </c>
+      <c r="C663">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A664" t="s">
+        <v>130</v>
+      </c>
+      <c r="B664" t="s">
+        <v>720</v>
+      </c>
+      <c r="C664">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A665" t="s">
+        <v>140</v>
+      </c>
+      <c r="B665" t="s">
+        <v>720</v>
+      </c>
+      <c r="C665">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A666" t="s">
+        <v>146</v>
+      </c>
+      <c r="B666" t="s">
+        <v>720</v>
+      </c>
+      <c r="C666">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A667" t="s">
+        <v>145</v>
+      </c>
+      <c r="B667" t="s">
+        <v>720</v>
+      </c>
+      <c r="C667">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A668" t="s">
+        <v>147</v>
+      </c>
+      <c r="B668" t="s">
+        <v>720</v>
+      </c>
+      <c r="C668">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A669" t="s">
+        <v>622</v>
+      </c>
+      <c r="B669" t="s">
+        <v>720</v>
+      </c>
+      <c r="C669">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A670" t="s">
+        <v>623</v>
+      </c>
+      <c r="B670" t="s">
+        <v>720</v>
+      </c>
+      <c r="C670">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A671" t="s">
+        <v>151</v>
+      </c>
+      <c r="B671" t="s">
+        <v>720</v>
+      </c>
+      <c r="C671">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A672" t="s">
+        <v>153</v>
+      </c>
+      <c r="B672" t="s">
+        <v>720</v>
+      </c>
+      <c r="C672">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A673" t="s">
+        <v>624</v>
+      </c>
+      <c r="B673" t="s">
+        <v>720</v>
+      </c>
+      <c r="C673">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A674" t="s">
+        <v>155</v>
+      </c>
+      <c r="B674" t="s">
+        <v>720</v>
+      </c>
+      <c r="C674">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A675" t="s">
+        <v>625</v>
+      </c>
+      <c r="B675" t="s">
+        <v>720</v>
+      </c>
+      <c r="C675">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A676" t="s">
+        <v>226</v>
+      </c>
+      <c r="B676" t="s">
+        <v>720</v>
+      </c>
+      <c r="C676">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A677" t="s">
+        <v>626</v>
+      </c>
+      <c r="B677" t="s">
+        <v>720</v>
+      </c>
+      <c r="C677">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A678" t="s">
+        <v>162</v>
+      </c>
+      <c r="B678" t="s">
+        <v>720</v>
+      </c>
+      <c r="C678">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A679" t="s">
+        <v>627</v>
+      </c>
+      <c r="B679" t="s">
+        <v>720</v>
+      </c>
+      <c r="C679">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
+        <v>163</v>
+      </c>
+      <c r="B680" t="s">
+        <v>720</v>
+      </c>
+      <c r="C680">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A681" t="s">
+        <v>628</v>
+      </c>
+      <c r="B681" t="s">
+        <v>720</v>
+      </c>
+      <c r="C681">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A682" t="s">
+        <v>228</v>
+      </c>
+      <c r="B682" t="s">
+        <v>720</v>
+      </c>
+      <c r="C682">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A683" t="s">
+        <v>168</v>
+      </c>
+      <c r="B683" t="s">
+        <v>720</v>
+      </c>
+      <c r="C683">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A684" t="s">
+        <v>629</v>
+      </c>
+      <c r="B684" t="s">
+        <v>720</v>
+      </c>
+      <c r="C684">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A685" t="s">
+        <v>175</v>
+      </c>
+      <c r="B685" t="s">
+        <v>720</v>
+      </c>
+      <c r="C685">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A686" t="s">
+        <v>630</v>
+      </c>
+      <c r="B686" t="s">
+        <v>720</v>
+      </c>
+      <c r="C686">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A687" t="s">
+        <v>631</v>
+      </c>
+      <c r="B687" t="s">
+        <v>720</v>
+      </c>
+      <c r="C687">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
+        <v>632</v>
+      </c>
+      <c r="B688" t="s">
+        <v>720</v>
+      </c>
+      <c r="C688">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A689" t="s">
+        <v>633</v>
+      </c>
+      <c r="B689" t="s">
+        <v>720</v>
+      </c>
+      <c r="C689">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A690" t="s">
+        <v>184</v>
+      </c>
+      <c r="B690" t="s">
+        <v>720</v>
+      </c>
+      <c r="C690">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A691" t="s">
+        <v>634</v>
+      </c>
+      <c r="B691" t="s">
+        <v>720</v>
+      </c>
+      <c r="C691">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>635</v>
+      </c>
+      <c r="B692" t="s">
+        <v>720</v>
+      </c>
+      <c r="C692">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>636</v>
+      </c>
+      <c r="B693" t="s">
+        <v>720</v>
+      </c>
+      <c r="C693">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A694" t="s">
+        <v>637</v>
+      </c>
+      <c r="B694" t="s">
+        <v>720</v>
+      </c>
+      <c r="C694">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>638</v>
+      </c>
+      <c r="B695" t="s">
+        <v>720</v>
+      </c>
+      <c r="C695">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
+        <v>639</v>
+      </c>
+      <c r="B696" t="s">
+        <v>720</v>
+      </c>
+      <c r="C696">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
+        <v>640</v>
+      </c>
+      <c r="B697" t="s">
+        <v>720</v>
+      </c>
+      <c r="C697">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
+        <v>641</v>
+      </c>
+      <c r="B698" t="s">
+        <v>720</v>
+      </c>
+      <c r="C698">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
+        <v>642</v>
+      </c>
+      <c r="B699" t="s">
+        <v>720</v>
+      </c>
+      <c r="C699">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
+        <v>643</v>
+      </c>
+      <c r="B700" t="s">
+        <v>720</v>
+      </c>
+      <c r="C700">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>644</v>
+      </c>
+      <c r="B701" t="s">
+        <v>720</v>
+      </c>
+      <c r="C701">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>645</v>
+      </c>
+      <c r="B702" t="s">
+        <v>720</v>
+      </c>
+      <c r="C702">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
+        <v>646</v>
+      </c>
+      <c r="B703" t="s">
+        <v>720</v>
+      </c>
+      <c r="C703">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>647</v>
+      </c>
+      <c r="B704" t="s">
+        <v>720</v>
+      </c>
+      <c r="C704">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>648</v>
+      </c>
+      <c r="B705" t="s">
+        <v>720</v>
+      </c>
+      <c r="C705">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A706" t="s">
+        <v>649</v>
+      </c>
+      <c r="B706" t="s">
+        <v>720</v>
+      </c>
+      <c r="C706">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
+        <v>650</v>
+      </c>
+      <c r="B707" t="s">
+        <v>720</v>
+      </c>
+      <c r="C707">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A708" t="s">
+        <v>651</v>
+      </c>
+      <c r="B708" t="s">
+        <v>720</v>
+      </c>
+      <c r="C708">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A709" t="s">
+        <v>652</v>
+      </c>
+      <c r="B709" t="s">
+        <v>720</v>
+      </c>
+      <c r="C709">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A710" t="s">
+        <v>653</v>
+      </c>
+      <c r="B710" t="s">
+        <v>720</v>
+      </c>
+      <c r="C710">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
+        <v>654</v>
+      </c>
+      <c r="B711" t="s">
+        <v>720</v>
+      </c>
+      <c r="C711">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
+        <v>655</v>
+      </c>
+      <c r="B712" t="s">
+        <v>720</v>
+      </c>
+      <c r="C712">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A713" t="s">
+        <v>656</v>
+      </c>
+      <c r="B713" t="s">
+        <v>720</v>
+      </c>
+      <c r="C713">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
+        <v>657</v>
+      </c>
+      <c r="B714" t="s">
+        <v>720</v>
+      </c>
+      <c r="C714">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A715" t="s">
+        <v>658</v>
+      </c>
+      <c r="B715" t="s">
+        <v>720</v>
+      </c>
+      <c r="C715">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A716" t="s">
+        <v>659</v>
+      </c>
+      <c r="B716" t="s">
+        <v>720</v>
+      </c>
+      <c r="C716">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
+        <v>660</v>
+      </c>
+      <c r="B717" t="s">
+        <v>720</v>
+      </c>
+      <c r="C717">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
+        <v>661</v>
+      </c>
+      <c r="B718" t="s">
+        <v>720</v>
+      </c>
+      <c r="C718">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
+        <v>662</v>
+      </c>
+      <c r="B719" t="s">
+        <v>720</v>
+      </c>
+      <c r="C719">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>663</v>
+      </c>
+      <c r="B720" t="s">
+        <v>720</v>
+      </c>
+      <c r="C720">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
+        <v>664</v>
+      </c>
+      <c r="B721" t="s">
+        <v>720</v>
+      </c>
+      <c r="C721">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
+        <v>665</v>
+      </c>
+      <c r="B722" t="s">
+        <v>720</v>
+      </c>
+      <c r="C722">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
+        <v>666</v>
+      </c>
+      <c r="B723" t="s">
+        <v>720</v>
+      </c>
+      <c r="C723">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A724" t="s">
+        <v>667</v>
+      </c>
+      <c r="B724" t="s">
+        <v>720</v>
+      </c>
+      <c r="C724">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A725" t="s">
+        <v>668</v>
+      </c>
+      <c r="B725" t="s">
+        <v>720</v>
+      </c>
+      <c r="C725">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A726" t="s">
+        <v>669</v>
+      </c>
+      <c r="B726" t="s">
+        <v>720</v>
+      </c>
+      <c r="C726">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A727" t="s">
+        <v>670</v>
+      </c>
+      <c r="B727" t="s">
+        <v>720</v>
+      </c>
+      <c r="C727">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A728" t="s">
+        <v>671</v>
+      </c>
+      <c r="B728" t="s">
+        <v>720</v>
+      </c>
+      <c r="C728">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A729" t="s">
+        <v>672</v>
+      </c>
+      <c r="B729" t="s">
+        <v>720</v>
+      </c>
+      <c r="C729">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A730" t="s">
+        <v>673</v>
+      </c>
+      <c r="B730" t="s">
+        <v>720</v>
+      </c>
+      <c r="C730">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A731" t="s">
+        <v>674</v>
+      </c>
+      <c r="B731" t="s">
+        <v>720</v>
+      </c>
+      <c r="C731">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A732" t="s">
+        <v>675</v>
+      </c>
+      <c r="B732" t="s">
+        <v>720</v>
+      </c>
+      <c r="C732">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A733" t="s">
+        <v>676</v>
+      </c>
+      <c r="B733" t="s">
+        <v>720</v>
+      </c>
+      <c r="C733">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A734" t="s">
+        <v>677</v>
+      </c>
+      <c r="B734" t="s">
+        <v>720</v>
+      </c>
+      <c r="C734">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A735" t="s">
+        <v>678</v>
+      </c>
+      <c r="B735" t="s">
+        <v>720</v>
+      </c>
+      <c r="C735">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A736" t="s">
+        <v>679</v>
+      </c>
+      <c r="B736" t="s">
+        <v>720</v>
+      </c>
+      <c r="C736">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A737" t="s">
+        <v>680</v>
+      </c>
+      <c r="B737" t="s">
+        <v>720</v>
+      </c>
+      <c r="C737">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A738" t="s">
+        <v>681</v>
+      </c>
+      <c r="B738" t="s">
+        <v>720</v>
+      </c>
+      <c r="C738">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A739" t="s">
+        <v>682</v>
+      </c>
+      <c r="B739" t="s">
+        <v>720</v>
+      </c>
+      <c r="C739">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A740" t="s">
+        <v>683</v>
+      </c>
+      <c r="B740" t="s">
+        <v>720</v>
+      </c>
+      <c r="C740">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A741" t="s">
+        <v>684</v>
+      </c>
+      <c r="B741" t="s">
+        <v>720</v>
+      </c>
+      <c r="C741">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A742" t="s">
+        <v>685</v>
+      </c>
+      <c r="B742" t="s">
+        <v>720</v>
+      </c>
+      <c r="C742">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A743" t="s">
+        <v>686</v>
+      </c>
+      <c r="B743" t="s">
+        <v>720</v>
+      </c>
+      <c r="C743">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A744" t="s">
+        <v>687</v>
+      </c>
+      <c r="B744" t="s">
+        <v>720</v>
+      </c>
+      <c r="C744">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A745" t="s">
+        <v>688</v>
+      </c>
+      <c r="B745" t="s">
+        <v>720</v>
+      </c>
+      <c r="C745">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A746" t="s">
+        <v>689</v>
+      </c>
+      <c r="B746" t="s">
+        <v>720</v>
+      </c>
+      <c r="C746">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A747" t="s">
+        <v>690</v>
+      </c>
+      <c r="B747" t="s">
+        <v>720</v>
+      </c>
+      <c r="C747">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A748" t="s">
+        <v>691</v>
+      </c>
+      <c r="B748" t="s">
+        <v>720</v>
+      </c>
+      <c r="C748">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A749" t="s">
+        <v>692</v>
+      </c>
+      <c r="B749" t="s">
+        <v>720</v>
+      </c>
+      <c r="C749">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A750" t="s">
+        <v>693</v>
+      </c>
+      <c r="B750" t="s">
+        <v>720</v>
+      </c>
+      <c r="C750">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A751" t="s">
+        <v>694</v>
+      </c>
+      <c r="B751" t="s">
+        <v>720</v>
+      </c>
+      <c r="C751">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
+        <v>695</v>
+      </c>
+      <c r="B752" t="s">
+        <v>720</v>
+      </c>
+      <c r="C752">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A753" t="s">
+        <v>696</v>
+      </c>
+      <c r="B753" t="s">
+        <v>720</v>
+      </c>
+      <c r="C753">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A754" t="s">
+        <v>697</v>
+      </c>
+      <c r="B754" t="s">
+        <v>720</v>
+      </c>
+      <c r="C754">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A755" t="s">
+        <v>698</v>
+      </c>
+      <c r="B755" t="s">
+        <v>720</v>
+      </c>
+      <c r="C755">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A756" t="s">
+        <v>699</v>
+      </c>
+      <c r="B756" t="s">
+        <v>720</v>
+      </c>
+      <c r="C756">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="757" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A757" t="s">
+        <v>700</v>
+      </c>
+      <c r="B757" t="s">
+        <v>720</v>
+      </c>
+      <c r="C757">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="758" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A758" t="s">
+        <v>701</v>
+      </c>
+      <c r="B758" t="s">
+        <v>720</v>
+      </c>
+      <c r="C758">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A759" t="s">
+        <v>702</v>
+      </c>
+      <c r="B759" t="s">
+        <v>720</v>
+      </c>
+      <c r="C759">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="760" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A760" t="s">
+        <v>703</v>
+      </c>
+      <c r="B760" t="s">
+        <v>720</v>
+      </c>
+      <c r="C760">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A761" t="s">
+        <v>704</v>
+      </c>
+      <c r="B761" t="s">
+        <v>720</v>
+      </c>
+      <c r="C761">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A762" t="s">
+        <v>705</v>
+      </c>
+      <c r="B762" t="s">
+        <v>720</v>
+      </c>
+      <c r="C762">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A763" t="s">
+        <v>706</v>
+      </c>
+      <c r="B763" t="s">
+        <v>720</v>
+      </c>
+      <c r="C763">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A764" t="s">
+        <v>707</v>
+      </c>
+      <c r="B764" t="s">
+        <v>720</v>
+      </c>
+      <c r="C764">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A765" t="s">
+        <v>708</v>
+      </c>
+      <c r="B765" t="s">
+        <v>720</v>
+      </c>
+      <c r="C765">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A766" t="s">
+        <v>709</v>
+      </c>
+      <c r="B766" t="s">
+        <v>720</v>
+      </c>
+      <c r="C766">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="767" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A767" t="s">
+        <v>710</v>
+      </c>
+      <c r="B767" t="s">
+        <v>720</v>
+      </c>
+      <c r="C767">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="768" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A768" t="s">
+        <v>711</v>
+      </c>
+      <c r="B768" t="s">
+        <v>720</v>
+      </c>
+      <c r="C768">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A769" t="s">
+        <v>712</v>
+      </c>
+      <c r="B769" t="s">
+        <v>720</v>
+      </c>
+      <c r="C769">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="770" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A770" t="s">
+        <v>713</v>
+      </c>
+      <c r="B770" t="s">
+        <v>720</v>
+      </c>
+      <c r="C770">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="771" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A771" t="s">
+        <v>714</v>
+      </c>
+      <c r="B771" t="s">
+        <v>720</v>
+      </c>
+      <c r="C771">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="772" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A772" t="s">
+        <v>715</v>
+      </c>
+      <c r="B772" t="s">
+        <v>720</v>
+      </c>
+      <c r="C772">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="773" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A773" t="s">
+        <v>716</v>
+      </c>
+      <c r="B773" t="s">
+        <v>720</v>
+      </c>
+      <c r="C773">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="774" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A774" t="s">
+        <v>717</v>
+      </c>
+      <c r="B774" t="s">
+        <v>720</v>
+      </c>
+      <c r="C774">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="775" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A775" t="s">
+        <v>718</v>
+      </c>
+      <c r="B775" t="s">
+        <v>720</v>
+      </c>
+      <c r="C775">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="776" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A776" t="s">
+        <v>719</v>
+      </c>
+      <c r="B776" t="s">
+        <v>720</v>
+      </c>
+      <c r="C776">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="777" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A777" t="s">
+        <v>127</v>
+      </c>
+      <c r="B777" t="s">
+        <v>728</v>
+      </c>
+      <c r="C777">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="778" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A778" t="s">
+        <v>132</v>
+      </c>
+      <c r="B778" t="s">
+        <v>728</v>
+      </c>
+      <c r="C778">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="779" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A779" t="s">
+        <v>622</v>
+      </c>
+      <c r="B779" t="s">
+        <v>728</v>
+      </c>
+      <c r="C779">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="780" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A780" t="s">
+        <v>146</v>
+      </c>
+      <c r="B780" t="s">
+        <v>728</v>
+      </c>
+      <c r="C780">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="781" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A781" t="s">
+        <v>155</v>
+      </c>
+      <c r="B781" t="s">
+        <v>728</v>
+      </c>
+      <c r="C781">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="782" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A782" t="s">
+        <v>358</v>
+      </c>
+      <c r="B782" t="s">
+        <v>728</v>
+      </c>
+      <c r="C782">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="783" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A783" t="s">
+        <v>355</v>
+      </c>
+      <c r="B783" t="s">
+        <v>728</v>
+      </c>
+      <c r="C783">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="784" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A784" t="s">
+        <v>721</v>
+      </c>
+      <c r="B784" t="s">
+        <v>728</v>
+      </c>
+      <c r="C784">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="785" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A785" t="s">
+        <v>629</v>
+      </c>
+      <c r="B785" t="s">
+        <v>728</v>
+      </c>
+      <c r="C785">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="786" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A786" t="s">
+        <v>397</v>
+      </c>
+      <c r="B786" t="s">
+        <v>728</v>
+      </c>
+      <c r="C786">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="787" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A787" t="s">
+        <v>722</v>
+      </c>
+      <c r="B787" t="s">
+        <v>728</v>
+      </c>
+      <c r="C787">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="788" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A788" t="s">
+        <v>723</v>
+      </c>
+      <c r="B788" t="s">
+        <v>728</v>
+      </c>
+      <c r="C788">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="789" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A789" t="s">
+        <v>724</v>
+      </c>
+      <c r="B789" t="s">
+        <v>728</v>
+      </c>
+      <c r="C789">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="790" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A790" t="s">
+        <v>725</v>
+      </c>
+      <c r="B790" t="s">
+        <v>728</v>
+      </c>
+      <c r="C790">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="791" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A791" t="s">
+        <v>647</v>
+      </c>
+      <c r="B791" t="s">
+        <v>728</v>
+      </c>
+      <c r="C791">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="792" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A792" t="s">
+        <v>185</v>
+      </c>
+      <c r="B792" t="s">
+        <v>728</v>
+      </c>
+      <c r="C792">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="793" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A793" t="s">
+        <v>184</v>
+      </c>
+      <c r="B793" t="s">
+        <v>728</v>
+      </c>
+      <c r="C793">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="794" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A794" t="s">
+        <v>658</v>
+      </c>
+      <c r="B794" t="s">
+        <v>728</v>
+      </c>
+      <c r="C794">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="795" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A795" t="s">
+        <v>653</v>
+      </c>
+      <c r="B795" t="s">
+        <v>728</v>
+      </c>
+      <c r="C795">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="796" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A796" t="s">
+        <v>649</v>
+      </c>
+      <c r="B796" t="s">
+        <v>728</v>
+      </c>
+      <c r="C796">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="797" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A797" t="s">
+        <v>670</v>
+      </c>
+      <c r="B797" t="s">
+        <v>728</v>
+      </c>
+      <c r="C797">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="798" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A798" t="s">
+        <v>726</v>
+      </c>
+      <c r="B798" t="s">
+        <v>728</v>
+      </c>
+      <c r="C798">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="799" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A799" t="s">
+        <v>727</v>
+      </c>
+      <c r="B799" t="s">
+        <v>728</v>
+      </c>
+      <c r="C799">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="800" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A800" t="s">
+        <v>723</v>
+      </c>
+      <c r="B800" t="s">
+        <v>729</v>
+      </c>
+      <c r="C800">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="801" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A801" t="s">
+        <v>669</v>
+      </c>
+      <c r="B801" t="s">
+        <v>729</v>
+      </c>
+      <c r="C801">
+        <v>0</v>
+      </c>
+      <c r="D801" s="2"/>
+    </row>
+    <row r="802" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A802" t="s">
+        <v>730</v>
+      </c>
+      <c r="B802" t="s">
+        <v>729</v>
+      </c>
+      <c r="C802">
+        <v>0</v>
+      </c>
+      <c r="D802" s="2"/>
+    </row>
+    <row r="803" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A803" t="s">
+        <v>630</v>
+      </c>
+      <c r="B803" t="s">
+        <v>729</v>
+      </c>
+      <c r="C803">
+        <v>0</v>
+      </c>
+      <c r="D803" s="2"/>
+    </row>
+    <row r="804" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A804" t="s">
+        <v>129</v>
+      </c>
+      <c r="B804" t="s">
+        <v>729</v>
+      </c>
+      <c r="C804">
+        <v>0</v>
+      </c>
+      <c r="D804" s="2"/>
+    </row>
+    <row r="805" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A805" t="s">
+        <v>731</v>
+      </c>
+      <c r="B805" t="s">
+        <v>729</v>
+      </c>
+      <c r="C805">
+        <v>0</v>
+      </c>
+      <c r="D805" s="2"/>
+    </row>
+    <row r="806" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A806" t="s">
+        <v>638</v>
+      </c>
+      <c r="B806" t="s">
+        <v>729</v>
+      </c>
+      <c r="C806">
+        <v>0</v>
+      </c>
+      <c r="D806" s="2"/>
+    </row>
+    <row r="807" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A807" t="s">
+        <v>732</v>
+      </c>
+      <c r="B807" t="s">
+        <v>729</v>
+      </c>
+      <c r="C807">
+        <v>0</v>
+      </c>
+      <c r="D807" s="2"/>
+    </row>
+    <row r="808" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A808" t="s">
+        <v>645</v>
+      </c>
+      <c r="B808" t="s">
+        <v>729</v>
+      </c>
+      <c r="C808">
+        <v>0</v>
+      </c>
+      <c r="D808" s="2"/>
+    </row>
+    <row r="809" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A809" t="s">
+        <v>684</v>
+      </c>
+      <c r="B809" t="s">
+        <v>729</v>
+      </c>
+      <c r="C809">
+        <v>0</v>
+      </c>
+      <c r="D809" s="2"/>
+    </row>
+    <row r="810" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A810" t="s">
+        <v>627</v>
+      </c>
+      <c r="B810" t="s">
+        <v>729</v>
+      </c>
+      <c r="C810">
+        <v>0</v>
+      </c>
+      <c r="D810" s="2"/>
+    </row>
+    <row r="811" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A811" t="s">
+        <v>701</v>
+      </c>
+      <c r="B811" t="s">
+        <v>729</v>
+      </c>
+      <c r="C811">
+        <v>0</v>
+      </c>
+      <c r="D811" s="2"/>
+    </row>
+    <row r="812" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A812" t="s">
+        <v>698</v>
+      </c>
+      <c r="B812" t="s">
+        <v>729</v>
+      </c>
+      <c r="C812">
+        <v>0</v>
+      </c>
+      <c r="D812" s="2"/>
+    </row>
+    <row r="813" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A813" t="s">
+        <v>681</v>
+      </c>
+      <c r="B813" t="s">
+        <v>729</v>
+      </c>
+      <c r="C813">
+        <v>0</v>
+      </c>
+      <c r="D813" s="2"/>
+    </row>
+    <row r="814" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A814" t="s">
+        <v>733</v>
+      </c>
+      <c r="B814" t="s">
+        <v>729</v>
+      </c>
+      <c r="C814">
+        <v>0</v>
+      </c>
+      <c r="D814" s="2"/>
+    </row>
+    <row r="815" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A815" t="s">
+        <v>644</v>
+      </c>
+      <c r="B815" t="s">
+        <v>729</v>
+      </c>
+      <c r="C815">
+        <v>0</v>
+      </c>
+      <c r="D815" s="2"/>
+    </row>
+    <row r="816" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A816" t="s">
+        <v>286</v>
+      </c>
+      <c r="B816" t="s">
+        <v>729</v>
+      </c>
+      <c r="C816">
+        <v>0</v>
+      </c>
+      <c r="D816" s="2"/>
+    </row>
+    <row r="817" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A817" t="s">
+        <v>651</v>
+      </c>
+      <c r="B817" t="s">
+        <v>729</v>
+      </c>
+      <c r="C817">
+        <v>0</v>
+      </c>
+      <c r="D817" s="2"/>
+    </row>
+    <row r="818" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A818" t="s">
+        <v>659</v>
+      </c>
+      <c r="B818" t="s">
+        <v>729</v>
+      </c>
+      <c r="C818">
+        <v>0</v>
+      </c>
+      <c r="D818" s="2"/>
+    </row>
+    <row r="819" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A819" t="s">
+        <v>690</v>
+      </c>
+      <c r="B819" t="s">
+        <v>729</v>
+      </c>
+      <c r="C819">
+        <v>0</v>
+      </c>
+      <c r="D819" s="2"/>
+    </row>
+    <row r="820" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A820" t="s">
+        <v>654</v>
+      </c>
+      <c r="B820" t="s">
+        <v>729</v>
+      </c>
+      <c r="C820">
+        <v>0</v>
+      </c>
+      <c r="D820" s="2"/>
+    </row>
+    <row r="821" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A821" t="s">
+        <v>666</v>
+      </c>
+      <c r="B821" t="s">
+        <v>729</v>
+      </c>
+      <c r="C821">
+        <v>0</v>
+      </c>
+      <c r="D821" s="2"/>
+    </row>
+    <row r="822" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A822" t="s">
+        <v>734</v>
+      </c>
+      <c r="B822" t="s">
+        <v>729</v>
+      </c>
+      <c r="C822">
+        <v>0</v>
+      </c>
+      <c r="D822" s="2"/>
+    </row>
+    <row r="823" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A823" t="s">
+        <v>735</v>
+      </c>
+      <c r="B823" t="s">
+        <v>729</v>
+      </c>
+      <c r="C823">
+        <v>0</v>
+      </c>
+      <c r="D823" s="2"/>
+    </row>
+    <row r="824" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A824" t="s">
+        <v>140</v>
+      </c>
+      <c r="B824" t="s">
+        <v>729</v>
+      </c>
+      <c r="C824">
+        <v>0</v>
+      </c>
+      <c r="D824" s="2"/>
+    </row>
+    <row r="825" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A825" t="s">
+        <v>736</v>
+      </c>
+      <c r="B825" t="s">
+        <v>729</v>
+      </c>
+      <c r="C825">
+        <v>0</v>
+      </c>
+      <c r="D825" s="2"/>
+    </row>
+    <row r="826" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A826" t="s">
+        <v>715</v>
+      </c>
+      <c r="B826" t="s">
+        <v>729</v>
+      </c>
+      <c r="C826">
+        <v>0</v>
+      </c>
+      <c r="D826" s="2"/>
+    </row>
+    <row r="827" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A827" t="s">
+        <v>650</v>
+      </c>
+      <c r="B827" t="s">
+        <v>729</v>
+      </c>
+      <c r="C827">
+        <v>0</v>
+      </c>
+      <c r="D827" s="2"/>
+    </row>
+    <row r="828" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A828" t="s">
+        <v>649</v>
+      </c>
+      <c r="B828" t="s">
+        <v>729</v>
+      </c>
+      <c r="C828">
+        <v>0</v>
+      </c>
+      <c r="D828" s="2"/>
+    </row>
+    <row r="829" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A829" t="s">
+        <v>625</v>
+      </c>
+      <c r="B829" t="s">
+        <v>729</v>
+      </c>
+      <c r="C829">
+        <v>0</v>
+      </c>
+      <c r="D829" s="2"/>
+    </row>
+    <row r="830" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A830" t="s">
+        <v>721</v>
+      </c>
+      <c r="B830" t="s">
+        <v>729</v>
+      </c>
+      <c r="C830">
+        <v>0</v>
+      </c>
+      <c r="D830" s="2"/>
+    </row>
+    <row r="831" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A831" t="s">
+        <v>737</v>
+      </c>
+      <c r="B831" t="s">
+        <v>729</v>
+      </c>
+      <c r="C831">
+        <v>0</v>
+      </c>
+      <c r="D831" s="2"/>
+    </row>
+    <row r="832" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A832" t="s">
+        <v>673</v>
+      </c>
+      <c r="B832" t="s">
+        <v>729</v>
+      </c>
+      <c r="C832">
+        <v>0</v>
+      </c>
+      <c r="D832" s="2"/>
+    </row>
+    <row r="833" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A833" t="s">
+        <v>691</v>
+      </c>
+      <c r="B833" t="s">
+        <v>729</v>
+      </c>
+      <c r="C833">
+        <v>0</v>
+      </c>
+      <c r="D833" s="2"/>
+    </row>
+    <row r="834" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A834" t="s">
+        <v>738</v>
+      </c>
+      <c r="B834" t="s">
+        <v>729</v>
+      </c>
+      <c r="C834">
+        <v>0</v>
+      </c>
+      <c r="D834" s="2"/>
+    </row>
+    <row r="835" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A835" t="s">
+        <v>626</v>
+      </c>
+      <c r="B835" t="s">
+        <v>729</v>
+      </c>
+      <c r="C835">
+        <v>0</v>
+      </c>
+      <c r="D835" s="2"/>
+    </row>
+    <row r="836" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A836" t="s">
+        <v>672</v>
+      </c>
+      <c r="B836" t="s">
+        <v>729</v>
+      </c>
+      <c r="C836">
+        <v>0</v>
+      </c>
+      <c r="D836" s="2"/>
+    </row>
+    <row r="837" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A837" t="s">
+        <v>677</v>
+      </c>
+      <c r="B837" t="s">
+        <v>729</v>
+      </c>
+      <c r="C837">
+        <v>0</v>
+      </c>
+      <c r="D837" s="2"/>
+    </row>
+    <row r="838" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A838" t="s">
+        <v>130</v>
+      </c>
+      <c r="B838" t="s">
+        <v>729</v>
+      </c>
+      <c r="C838">
+        <v>0</v>
+      </c>
+      <c r="D838" s="2"/>
+    </row>
+    <row r="839" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A839" t="s">
+        <v>739</v>
+      </c>
+      <c r="B839" t="s">
+        <v>729</v>
+      </c>
+      <c r="C839">
+        <v>0</v>
+      </c>
+      <c r="D839" s="2"/>
+    </row>
+    <row r="840" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A840" t="s">
+        <v>740</v>
+      </c>
+      <c r="B840" t="s">
+        <v>729</v>
+      </c>
+      <c r="C840">
+        <v>0</v>
+      </c>
+      <c r="D840" s="2"/>
+    </row>
+    <row r="841" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A841" t="s">
+        <v>682</v>
+      </c>
+      <c r="B841" t="s">
+        <v>729</v>
+      </c>
+      <c r="C841">
+        <v>0</v>
+      </c>
+      <c r="D841" s="2"/>
+    </row>
+    <row r="842" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A842" t="s">
+        <v>623</v>
+      </c>
+      <c r="B842" t="s">
+        <v>729</v>
+      </c>
+      <c r="C842">
+        <v>0</v>
+      </c>
+      <c r="D842" s="2"/>
+    </row>
+    <row r="843" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A843" t="s">
+        <v>622</v>
+      </c>
+      <c r="B843" t="s">
+        <v>729</v>
+      </c>
+      <c r="C843">
+        <v>0</v>
+      </c>
+      <c r="D843" s="2"/>
+    </row>
+    <row r="844" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A844" t="s">
+        <v>412</v>
+      </c>
+      <c r="B844" t="s">
+        <v>729</v>
+      </c>
+      <c r="C844">
+        <v>0</v>
+      </c>
+      <c r="D844" s="2"/>
+    </row>
+    <row r="845" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A845" t="s">
+        <v>741</v>
+      </c>
+      <c r="B845" t="s">
+        <v>729</v>
+      </c>
+      <c r="C845">
+        <v>0</v>
+      </c>
+      <c r="D845" s="2"/>
+    </row>
+    <row r="846" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A846" t="s">
+        <v>655</v>
+      </c>
+      <c r="B846" t="s">
+        <v>729</v>
+      </c>
+      <c r="C846">
+        <v>0</v>
+      </c>
+      <c r="D846" s="2"/>
+    </row>
+    <row r="847" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A847" t="s">
+        <v>742</v>
+      </c>
+      <c r="B847" t="s">
+        <v>729</v>
+      </c>
+      <c r="C847">
+        <v>0</v>
+      </c>
+      <c r="D847" s="2"/>
+    </row>
+    <row r="848" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A848" t="s">
+        <v>743</v>
+      </c>
+      <c r="B848" t="s">
+        <v>729</v>
+      </c>
+      <c r="C848">
+        <v>0</v>
+      </c>
+      <c r="D848" s="2"/>
+    </row>
+    <row r="849" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A849" t="s">
+        <v>653</v>
+      </c>
+      <c r="B849" t="s">
+        <v>729</v>
+      </c>
+      <c r="C849">
+        <v>0</v>
+      </c>
+      <c r="D849" s="2"/>
+    </row>
+    <row r="850" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A850" t="s">
+        <v>744</v>
+      </c>
+      <c r="B850" t="s">
+        <v>729</v>
+      </c>
+      <c r="C850">
+        <v>0</v>
+      </c>
+      <c r="D850" s="2"/>
+    </row>
+    <row r="851" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A851" t="s">
+        <v>647</v>
+      </c>
+      <c r="B851" t="s">
+        <v>729</v>
+      </c>
+      <c r="C851">
+        <v>0</v>
+      </c>
+      <c r="D851" s="2"/>
+    </row>
+    <row r="852" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A852" t="s">
+        <v>711</v>
+      </c>
+      <c r="B852" t="s">
+        <v>729</v>
+      </c>
+      <c r="C852">
+        <v>0</v>
+      </c>
+      <c r="D852" s="2"/>
+    </row>
+    <row r="853" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A853" t="s">
+        <v>745</v>
+      </c>
+      <c r="B853" t="s">
+        <v>729</v>
+      </c>
+      <c r="C853">
+        <v>0</v>
+      </c>
+      <c r="D853" s="2"/>
+    </row>
+    <row r="854" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A854" t="s">
+        <v>640</v>
+      </c>
+      <c r="B854" t="s">
+        <v>729</v>
+      </c>
+      <c r="C854">
+        <v>0</v>
+      </c>
+      <c r="D854" s="2"/>
+    </row>
+    <row r="855" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A855" t="s">
+        <v>746</v>
+      </c>
+      <c r="B855" t="s">
+        <v>729</v>
+      </c>
+      <c r="C855">
+        <v>0</v>
+      </c>
+      <c r="D855" s="2"/>
+    </row>
+    <row r="856" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A856" t="s">
+        <v>665</v>
+      </c>
+      <c r="B856" t="s">
+        <v>729</v>
+      </c>
+      <c r="C856">
+        <v>0</v>
+      </c>
+      <c r="D856" s="2"/>
+    </row>
+    <row r="857" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A857" t="s">
+        <v>652</v>
+      </c>
+      <c r="B857" t="s">
+        <v>729</v>
+      </c>
+      <c r="C857">
+        <v>0</v>
+      </c>
+      <c r="D857" s="2"/>
+    </row>
+    <row r="858" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A858" t="s">
+        <v>637</v>
+      </c>
+      <c r="B858" t="s">
+        <v>729</v>
+      </c>
+      <c r="C858">
+        <v>0</v>
+      </c>
+      <c r="D858" s="2"/>
+    </row>
+    <row r="859" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A859" t="s">
+        <v>747</v>
+      </c>
+      <c r="B859" t="s">
+        <v>729</v>
+      </c>
+      <c r="C859">
+        <v>0</v>
+      </c>
+      <c r="D859" s="2"/>
+    </row>
+    <row r="860" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A860" t="s">
+        <v>748</v>
+      </c>
+      <c r="B860" t="s">
+        <v>729</v>
+      </c>
+      <c r="C860">
+        <v>0</v>
+      </c>
+      <c r="D860" s="2"/>
+    </row>
+    <row r="861" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A861" t="s">
+        <v>629</v>
+      </c>
+      <c r="B861" t="s">
+        <v>729</v>
+      </c>
+      <c r="C861">
+        <v>0</v>
+      </c>
+      <c r="D861" s="2"/>
+    </row>
+    <row r="862" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A862" t="s">
+        <v>688</v>
+      </c>
+      <c r="B862" t="s">
+        <v>729</v>
+      </c>
+      <c r="C862">
+        <v>0</v>
+      </c>
+      <c r="D862" s="2"/>
+    </row>
+    <row r="863" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A863" t="s">
+        <v>727</v>
+      </c>
+      <c r="B863" t="s">
+        <v>729</v>
+      </c>
+      <c r="C863">
+        <v>0</v>
+      </c>
+      <c r="D863" s="2"/>
+    </row>
+    <row r="864" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A864" t="s">
+        <v>661</v>
+      </c>
+      <c r="B864" t="s">
+        <v>729</v>
+      </c>
+      <c r="C864">
+        <v>0</v>
+      </c>
+      <c r="D864" s="2"/>
+    </row>
+    <row r="865" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A865" t="s">
+        <v>749</v>
+      </c>
+      <c r="B865" t="s">
+        <v>729</v>
+      </c>
+      <c r="C865">
+        <v>0</v>
+      </c>
+      <c r="D865" s="2"/>
+    </row>
+    <row r="866" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A866" t="s">
+        <v>750</v>
+      </c>
+      <c r="B866" t="s">
+        <v>729</v>
+      </c>
+      <c r="C866">
+        <v>0</v>
+      </c>
+      <c r="D866" s="2"/>
+    </row>
+    <row r="867" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A867" t="s">
+        <v>731</v>
+      </c>
+      <c r="B867" t="s">
+        <v>760</v>
+      </c>
+      <c r="C867">
+        <v>0</v>
+      </c>
+      <c r="D867" s="2"/>
+    </row>
+    <row r="868" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A868" t="s">
+        <v>645</v>
+      </c>
+      <c r="B868" t="s">
+        <v>760</v>
+      </c>
+      <c r="C868">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="869" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A869" t="s">
+        <v>742</v>
+      </c>
+      <c r="B869" t="s">
+        <v>760</v>
+      </c>
+      <c r="C869">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="870" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A870" t="s">
+        <v>629</v>
+      </c>
+      <c r="B870" t="s">
+        <v>760</v>
+      </c>
+      <c r="C870">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="871" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A871" t="s">
+        <v>129</v>
+      </c>
+      <c r="B871" t="s">
+        <v>760</v>
+      </c>
+      <c r="C871">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="872" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A872" t="s">
+        <v>220</v>
+      </c>
+      <c r="B872" t="s">
+        <v>760</v>
+      </c>
+      <c r="C872">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="873" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A873" t="s">
+        <v>623</v>
+      </c>
+      <c r="B873" t="s">
+        <v>760</v>
+      </c>
+      <c r="C873">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="874" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A874" t="s">
+        <v>746</v>
+      </c>
+      <c r="B874" t="s">
+        <v>760</v>
+      </c>
+      <c r="C874">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="875" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A875" t="s">
+        <v>737</v>
+      </c>
+      <c r="B875" t="s">
+        <v>760</v>
+      </c>
+      <c r="C875">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="876" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A876" t="s">
+        <v>630</v>
+      </c>
+      <c r="B876" t="s">
+        <v>760</v>
+      </c>
+      <c r="C876">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="877" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A877" t="s">
+        <v>646</v>
+      </c>
+      <c r="B877" t="s">
+        <v>760</v>
+      </c>
+      <c r="C877">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="878" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A878" t="s">
+        <v>412</v>
+      </c>
+      <c r="B878" t="s">
+        <v>760</v>
+      </c>
+      <c r="C878">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="879" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A879" t="s">
+        <v>672</v>
+      </c>
+      <c r="B879" t="s">
+        <v>760</v>
+      </c>
+      <c r="C879">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="880" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A880" t="s">
+        <v>649</v>
+      </c>
+      <c r="B880" t="s">
+        <v>760</v>
+      </c>
+      <c r="C880">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="881" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A881" t="s">
+        <v>462</v>
+      </c>
+      <c r="B881" t="s">
+        <v>760</v>
+      </c>
+      <c r="C881">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="882" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A882" t="s">
+        <v>661</v>
+      </c>
+      <c r="B882" t="s">
+        <v>760</v>
+      </c>
+      <c r="C882">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="883" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A883" t="s">
+        <v>180</v>
+      </c>
+      <c r="B883" t="s">
+        <v>760</v>
+      </c>
+      <c r="C883">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="884" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A884" t="s">
+        <v>666</v>
+      </c>
+      <c r="B884" t="s">
+        <v>760</v>
+      </c>
+      <c r="C884">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="885" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A885" t="s">
+        <v>751</v>
+      </c>
+      <c r="B885" t="s">
+        <v>760</v>
+      </c>
+      <c r="C885">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="886" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A886" t="s">
+        <v>665</v>
+      </c>
+      <c r="B886" t="s">
+        <v>760</v>
+      </c>
+      <c r="C886">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="887" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A887" t="s">
+        <v>652</v>
+      </c>
+      <c r="B887" t="s">
+        <v>760</v>
+      </c>
+      <c r="C887">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="888" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A888" t="s">
+        <v>727</v>
+      </c>
+      <c r="B888" t="s">
+        <v>760</v>
+      </c>
+      <c r="C888">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="889" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A889" t="s">
+        <v>2</v>
+      </c>
+      <c r="B889" t="s">
+        <v>760</v>
+      </c>
+      <c r="C889">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="890" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A890" t="s">
+        <v>123</v>
+      </c>
+      <c r="B890" t="s">
+        <v>760</v>
+      </c>
+      <c r="C890">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="891" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A891" t="s">
+        <v>705</v>
+      </c>
+      <c r="B891" t="s">
+        <v>760</v>
+      </c>
+      <c r="C891">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="892" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A892" t="s">
+        <v>218</v>
+      </c>
+      <c r="B892" t="s">
+        <v>760</v>
+      </c>
+      <c r="C892">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="893" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A893" t="s">
+        <v>752</v>
+      </c>
+      <c r="B893" t="s">
+        <v>760</v>
+      </c>
+      <c r="C893">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="894" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A894" t="s">
+        <v>753</v>
+      </c>
+      <c r="B894" t="s">
+        <v>760</v>
+      </c>
+      <c r="C894">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="895" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A895" t="s">
+        <v>743</v>
+      </c>
+      <c r="B895" t="s">
+        <v>760</v>
+      </c>
+      <c r="C895">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="896" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A896" t="s">
+        <v>754</v>
+      </c>
+      <c r="B896" t="s">
+        <v>760</v>
+      </c>
+      <c r="C896">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="897" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A897" t="s">
+        <v>755</v>
+      </c>
+      <c r="B897" t="s">
+        <v>760</v>
+      </c>
+      <c r="C897">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="898" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A898" t="s">
+        <v>756</v>
+      </c>
+      <c r="B898" t="s">
+        <v>760</v>
+      </c>
+      <c r="C898">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="899" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A899" t="s">
+        <v>137</v>
+      </c>
+      <c r="B899" t="s">
+        <v>760</v>
+      </c>
+      <c r="C899">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="900" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A900" t="s">
+        <v>757</v>
+      </c>
+      <c r="B900" t="s">
+        <v>760</v>
+      </c>
+      <c r="C900">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="901" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A901" t="s">
+        <v>758</v>
+      </c>
+      <c r="B901" t="s">
+        <v>760</v>
+      </c>
+      <c r="C901">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="902" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A902" t="s">
+        <v>759</v>
+      </c>
+      <c r="B902" t="s">
+        <v>760</v>
+      </c>
+      <c r="C902">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="903" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A903" t="s">
+        <v>622</v>
+      </c>
+      <c r="B903" t="s">
+        <v>766</v>
+      </c>
+      <c r="C903">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="904" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A904" t="s">
+        <v>629</v>
+      </c>
+      <c r="B904" t="s">
+        <v>766</v>
+      </c>
+      <c r="C904">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="905" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A905" t="s">
+        <v>647</v>
+      </c>
+      <c r="B905" t="s">
+        <v>766</v>
+      </c>
+      <c r="C905">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="906" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A906" t="s">
+        <v>184</v>
+      </c>
+      <c r="B906" t="s">
+        <v>766</v>
+      </c>
+      <c r="C906">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="907" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A907" t="s">
+        <v>155</v>
+      </c>
+      <c r="B907" t="s">
+        <v>766</v>
+      </c>
+      <c r="C907">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="908" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A908" t="s">
+        <v>146</v>
+      </c>
+      <c r="B908" t="s">
+        <v>766</v>
+      </c>
+      <c r="C908">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="909" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A909" t="s">
+        <v>723</v>
+      </c>
+      <c r="B909" t="s">
+        <v>766</v>
+      </c>
+      <c r="C909">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="910" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A910" t="s">
+        <v>725</v>
+      </c>
+      <c r="B910" t="s">
+        <v>766</v>
+      </c>
+      <c r="C910">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="911" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A911" t="s">
+        <v>658</v>
+      </c>
+      <c r="B911" t="s">
+        <v>766</v>
+      </c>
+      <c r="C911">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="912" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A912" t="s">
+        <v>724</v>
+      </c>
+      <c r="B912" t="s">
+        <v>766</v>
+      </c>
+      <c r="C912">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="913" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A913" t="s">
+        <v>653</v>
+      </c>
+      <c r="B913" t="s">
+        <v>766</v>
+      </c>
+      <c r="C913">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="914" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A914" t="s">
+        <v>761</v>
+      </c>
+      <c r="B914" t="s">
+        <v>766</v>
+      </c>
+      <c r="C914">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="915" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A915" t="s">
+        <v>712</v>
+      </c>
+      <c r="B915" t="s">
+        <v>766</v>
+      </c>
+      <c r="C915">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="916" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A916" t="s">
+        <v>670</v>
+      </c>
+      <c r="B916" t="s">
+        <v>766</v>
+      </c>
+      <c r="C916">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="917" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A917" t="s">
+        <v>762</v>
+      </c>
+      <c r="B917" t="s">
+        <v>766</v>
+      </c>
+      <c r="C917">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="918" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A918" t="s">
+        <v>649</v>
+      </c>
+      <c r="B918" t="s">
+        <v>766</v>
+      </c>
+      <c r="C918">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="919" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A919" t="s">
+        <v>699</v>
+      </c>
+      <c r="B919" t="s">
+        <v>766</v>
+      </c>
+      <c r="C919">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="920" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A920" t="s">
+        <v>763</v>
+      </c>
+      <c r="B920" t="s">
+        <v>766</v>
+      </c>
+      <c r="C920">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="921" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A921" t="s">
+        <v>764</v>
+      </c>
+      <c r="B921" t="s">
+        <v>766</v>
+      </c>
+      <c r="C921">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="922" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A922" t="s">
+        <v>765</v>
+      </c>
+      <c r="B922" t="s">
+        <v>766</v>
+      </c>
+      <c r="C922">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="923" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A923" t="s">
+        <v>767</v>
+      </c>
+      <c r="B923" t="s">
+        <v>791</v>
+      </c>
+      <c r="C923">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="924" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A924" t="s">
+        <v>4</v>
+      </c>
+      <c r="B924" t="s">
+        <v>791</v>
+      </c>
+      <c r="C924">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="925" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A925" t="s">
+        <v>730</v>
+      </c>
+      <c r="B925" t="s">
+        <v>791</v>
+      </c>
+      <c r="C925">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="926" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A926" t="s">
+        <v>768</v>
+      </c>
+      <c r="B926" t="s">
+        <v>791</v>
+      </c>
+      <c r="C926">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="927" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A927" t="s">
+        <v>769</v>
+      </c>
+      <c r="B927" t="s">
+        <v>791</v>
+      </c>
+      <c r="C927">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="928" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A928" t="s">
+        <v>640</v>
+      </c>
+      <c r="B928" t="s">
+        <v>791</v>
+      </c>
+      <c r="C928">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="929" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A929" t="s">
+        <v>630</v>
+      </c>
+      <c r="B929" t="s">
+        <v>791</v>
+      </c>
+      <c r="C929">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="930" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A930" t="s">
+        <v>770</v>
+      </c>
+      <c r="B930" t="s">
+        <v>791</v>
+      </c>
+      <c r="C930">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="931" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A931" t="s">
+        <v>771</v>
+      </c>
+      <c r="B931" t="s">
+        <v>791</v>
+      </c>
+      <c r="C931">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="932" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A932" t="s">
+        <v>648</v>
+      </c>
+      <c r="B932" t="s">
+        <v>791</v>
+      </c>
+      <c r="C932">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="933" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A933" t="s">
+        <v>772</v>
+      </c>
+      <c r="B933" t="s">
+        <v>791</v>
+      </c>
+      <c r="C933">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="934" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A934" t="s">
+        <v>773</v>
+      </c>
+      <c r="B934" t="s">
+        <v>791</v>
+      </c>
+      <c r="C934">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="935" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A935" t="s">
+        <v>624</v>
+      </c>
+      <c r="B935" t="s">
+        <v>791</v>
+      </c>
+      <c r="C935">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="936" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A936" t="s">
+        <v>774</v>
+      </c>
+      <c r="B936" t="s">
+        <v>791</v>
+      </c>
+      <c r="C936">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="937" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A937" t="s">
+        <v>746</v>
+      </c>
+      <c r="B937" t="s">
+        <v>791</v>
+      </c>
+      <c r="C937">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="938" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A938" t="s">
+        <v>775</v>
+      </c>
+      <c r="B938" t="s">
+        <v>791</v>
+      </c>
+      <c r="C938">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="939" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A939" t="s">
+        <v>776</v>
+      </c>
+      <c r="B939" t="s">
+        <v>791</v>
+      </c>
+      <c r="C939">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="940" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A940" t="s">
+        <v>777</v>
+      </c>
+      <c r="B940" t="s">
+        <v>791</v>
+      </c>
+      <c r="C940">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="941" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A941" t="s">
+        <v>690</v>
+      </c>
+      <c r="B941" t="s">
+        <v>791</v>
+      </c>
+      <c r="C941">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="942" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A942" t="s">
+        <v>778</v>
+      </c>
+      <c r="B942" t="s">
+        <v>791</v>
+      </c>
+      <c r="C942">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="943" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A943" t="s">
+        <v>779</v>
+      </c>
+      <c r="B943" t="s">
+        <v>791</v>
+      </c>
+      <c r="C943">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="944" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A944" t="s">
+        <v>780</v>
+      </c>
+      <c r="B944" t="s">
+        <v>791</v>
+      </c>
+      <c r="C944">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="945" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A945" t="s">
+        <v>781</v>
+      </c>
+      <c r="B945" t="s">
+        <v>791</v>
+      </c>
+      <c r="C945">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="946" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A946" t="s">
+        <v>782</v>
+      </c>
+      <c r="B946" t="s">
+        <v>791</v>
+      </c>
+      <c r="C946">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="947" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A947" t="s">
+        <v>783</v>
+      </c>
+      <c r="B947" t="s">
+        <v>791</v>
+      </c>
+      <c r="C947">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="948" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A948" t="s">
+        <v>784</v>
+      </c>
+      <c r="B948" t="s">
+        <v>791</v>
+      </c>
+      <c r="C948">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="949" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A949" t="s">
+        <v>737</v>
+      </c>
+      <c r="B949" t="s">
+        <v>791</v>
+      </c>
+      <c r="C949">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="950" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A950" t="s">
+        <v>217</v>
+      </c>
+      <c r="B950" t="s">
+        <v>791</v>
+      </c>
+      <c r="C950">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="951" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A951" t="s">
+        <v>785</v>
+      </c>
+      <c r="B951" t="s">
+        <v>791</v>
+      </c>
+      <c r="C951">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="952" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A952" t="s">
+        <v>181</v>
+      </c>
+      <c r="B952" t="s">
+        <v>791</v>
+      </c>
+      <c r="C952">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="953" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A953" t="s">
+        <v>786</v>
+      </c>
+      <c r="B953" t="s">
+        <v>791</v>
+      </c>
+      <c r="C953">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="954" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A954" t="s">
+        <v>787</v>
+      </c>
+      <c r="B954" t="s">
+        <v>791</v>
+      </c>
+      <c r="C954">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="955" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A955" t="s">
+        <v>788</v>
+      </c>
+      <c r="B955" t="s">
+        <v>791</v>
+      </c>
+      <c r="C955">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="956" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A956" t="s">
+        <v>789</v>
+      </c>
+      <c r="B956" t="s">
+        <v>791</v>
+      </c>
+      <c r="C956">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="957" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A957" t="s">
+        <v>790</v>
+      </c>
+      <c r="B957" t="s">
+        <v>791</v>
+      </c>
+      <c r="C957">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="958" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A958" t="s">
+        <v>759</v>
+      </c>
+      <c r="B958" t="s">
+        <v>791</v>
+      </c>
+      <c r="C958">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="959" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A959" t="s">
+        <v>176</v>
+      </c>
+      <c r="B959" t="s">
+        <v>818</v>
+      </c>
+      <c r="C959">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="960" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A960" t="s">
+        <v>177</v>
+      </c>
+      <c r="B960" t="s">
+        <v>818</v>
+      </c>
+      <c r="C960">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="961" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A961" t="s">
+        <v>792</v>
+      </c>
+      <c r="B961" t="s">
+        <v>818</v>
+      </c>
+      <c r="C961">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="962" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A962" t="s">
+        <v>793</v>
+      </c>
+      <c r="B962" t="s">
+        <v>818</v>
+      </c>
+      <c r="C962">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="963" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A963" t="s">
+        <v>794</v>
+      </c>
+      <c r="B963" t="s">
+        <v>818</v>
+      </c>
+      <c r="C963">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="964" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A964" t="s">
+        <v>795</v>
+      </c>
+      <c r="B964" t="s">
+        <v>818</v>
+      </c>
+      <c r="C964">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="965" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A965" t="s">
+        <v>796</v>
+      </c>
+      <c r="B965" t="s">
+        <v>818</v>
+      </c>
+      <c r="C965">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="966" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A966" t="s">
+        <v>797</v>
+      </c>
+      <c r="B966" t="s">
+        <v>818</v>
+      </c>
+      <c r="C966">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="967" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A967" t="s">
+        <v>798</v>
+      </c>
+      <c r="B967" t="s">
+        <v>818</v>
+      </c>
+      <c r="C967">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="968" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A968" t="s">
+        <v>799</v>
+      </c>
+      <c r="B968" t="s">
+        <v>818</v>
+      </c>
+      <c r="C968">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="969" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A969" t="s">
+        <v>800</v>
+      </c>
+      <c r="B969" t="s">
+        <v>818</v>
+      </c>
+      <c r="C969">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="970" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A970" t="s">
+        <v>801</v>
+      </c>
+      <c r="B970" t="s">
+        <v>818</v>
+      </c>
+      <c r="C970">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="971" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A971" t="s">
+        <v>802</v>
+      </c>
+      <c r="B971" t="s">
+        <v>818</v>
+      </c>
+      <c r="C971">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="972" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A972" t="s">
+        <v>803</v>
+      </c>
+      <c r="B972" t="s">
+        <v>818</v>
+      </c>
+      <c r="C972">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="973" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A973" t="s">
+        <v>804</v>
+      </c>
+      <c r="B973" t="s">
+        <v>818</v>
+      </c>
+      <c r="C973">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="974" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A974" t="s">
+        <v>805</v>
+      </c>
+      <c r="B974" t="s">
+        <v>818</v>
+      </c>
+      <c r="C974">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="975" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A975" t="s">
+        <v>806</v>
+      </c>
+      <c r="B975" t="s">
+        <v>818</v>
+      </c>
+      <c r="C975">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="976" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A976" t="s">
+        <v>807</v>
+      </c>
+      <c r="B976" t="s">
+        <v>818</v>
+      </c>
+      <c r="C976">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="977" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A977" t="s">
+        <v>808</v>
+      </c>
+      <c r="B977" t="s">
+        <v>818</v>
+      </c>
+      <c r="C977">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="978" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A978" t="s">
+        <v>809</v>
+      </c>
+      <c r="B978" t="s">
+        <v>818</v>
+      </c>
+      <c r="C978">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="979" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A979" t="s">
+        <v>810</v>
+      </c>
+      <c r="B979" t="s">
+        <v>818</v>
+      </c>
+      <c r="C979">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="980" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A980" t="s">
+        <v>811</v>
+      </c>
+      <c r="B980" t="s">
+        <v>818</v>
+      </c>
+      <c r="C980">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="981" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A981" t="s">
+        <v>812</v>
+      </c>
+      <c r="B981" t="s">
+        <v>818</v>
+      </c>
+      <c r="C981">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="982" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A982" t="s">
+        <v>813</v>
+      </c>
+      <c r="B982" t="s">
+        <v>818</v>
+      </c>
+      <c r="C982">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="983" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A983" t="s">
+        <v>814</v>
+      </c>
+      <c r="B983" t="s">
+        <v>818</v>
+      </c>
+      <c r="C983">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="984" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A984" t="s">
+        <v>815</v>
+      </c>
+      <c r="B984" t="s">
+        <v>818</v>
+      </c>
+      <c r="C984">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="985" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A985" t="s">
+        <v>816</v>
+      </c>
+      <c r="B985" t="s">
+        <v>818</v>
+      </c>
+      <c r="C985">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="986" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A986" t="s">
+        <v>817</v>
+      </c>
+      <c r="B986" t="s">
+        <v>818</v>
+      </c>
+      <c r="C986">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="987" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C987" s="3"/>
+    </row>
+    <row r="988" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C988" s="3"/>
+    </row>
+    <row r="989" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C989" s="3"/>
+    </row>
+    <row r="990" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C990" s="3"/>
+    </row>
+    <row r="991" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C991" s="3"/>
+    </row>
+    <row r="992" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C992" s="3"/>
+    </row>
+    <row r="993" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C993" s="3"/>
+    </row>
+    <row r="994" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C994" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
